--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-010 Asphalt & Checklist -  Rev.3.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-010 Asphalt & Checklist -  Rev.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7E360-2063-44E7-A50C-5EC32E360308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08FF233-3C27-4979-90E7-C51A480E3374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="1830" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="122">
   <si>
     <t>type</t>
   </si>
@@ -67,88 +67,325 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-010 Asphalt &amp; Checklist -  Rev.3</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7 - </t>
-  </si>
-  <si>
     <t>2.0 Preparation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 - </t>
-  </si>
-  <si>
     <t>3.0 Placement of Asphalt</t>
   </si>
   <si>
     <t>4.0 Finishing</t>
+  </si>
+  <si>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t>1.2 - Determine lot size</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 7.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Lots to be broken up accordingly and outlined on a lot map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>1.3 - Set out</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.13], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the pavement been set out by an accredited Surveyor?</t>
+  </si>
+  <si>
+    <t>○ Set out comply with drawings?</t>
+  </si>
+  <si>
+    <t>1.4 - Mix design approval</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1144 Asphaltic Concrete [Cl 2.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Provide all mix designs. Mix design is to be assessed by the Superintendent for compliance.</t>
+  </si>
+  <si>
+    <t>Notice: 14 working days before using mix</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>○ Mix design to be approved by Superintendent before use.</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>Mix design</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>1.5 - Tolerances of mix production</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1144 Asphaltic Concrete [Cl 3.1]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the Binder within 0.3% of total mix?</t>
+  </si>
+  <si>
+    <t>○ Has the daily particle size distribution been within tolerance?</t>
+  </si>
+  <si>
+    <t>○ Has the daily moisture content been within tolerance – not to exceed 0.5% on completion of mixing?</t>
+  </si>
+  <si>
+    <t>Test report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 - Production temperatures </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1144 Asphaltic Concrete [Cl 3.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Do the temperatures listed below comply with requirements for max. temperature?</t>
+  </si>
+  <si>
+    <t>– Class 170, Class 320, Class AR450 Bitumen delivered into mixer – 165ºC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Class 600 Bitumen delivered into mixer – 175 ºC </t>
+  </si>
+  <si>
+    <t>– Aggregates before binder – 200 ºC</t>
+  </si>
+  <si>
+    <t>– Asphalt at discharge point – 175 ºC</t>
+  </si>
+  <si>
+    <t>1.7 - Certification of specification Compliance</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has each delivery come with a certificate of compliance?</t>
+  </si>
+  <si>
+    <t>Certificate of compliance</t>
+  </si>
+  <si>
+    <t>2.1 - Conformance of previous layer</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the previous layer passed acceptance criteria? Refer to ITP of previous layer.</t>
+  </si>
+  <si>
+    <t>2.2 - Joints</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1144 Asphaltic Concrete [Cl 3.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Transverse joints shall be offset by not less than 2m in adjoining paver runs and from later to layer.</t>
+  </si>
+  <si>
+    <t>Longitudinal joints shall meet the following requirements:</t>
+  </si>
+  <si>
+    <t>Notice: 7 working day before commencing</t>
+  </si>
+  <si>
+    <t>– Wearing course joint coincide with location of intended traffic lane lines</t>
+  </si>
+  <si>
+    <t>– Intermediate and base course offset from layer to layer by not less than 150mm provided that no joint is placed directly below a trafficked wheel path</t>
+  </si>
+  <si>
+    <t>– Parallel to traffic lanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Location of planned joints is a Hold Point. </t>
+  </si>
+  <si>
+    <t>2.3 - Prime application rate</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Unless otherwise directed, tack coat is to be applied to provide a uniform application rate of residual binder of between 0.10L/m2 and 0.20L/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 to 0.30 litres/m 2 (60% bitumen content) </t>
+  </si>
+  <si>
+    <t>0.30 to 0.60 litres/ m 2 (30% bitumen content)</t>
+  </si>
+  <si>
+    <t>○ Is the application rate for tack coat between the following?</t>
+  </si>
+  <si>
+    <t>2.4 - Approval to proceed</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has approval to proceed been obtained from the Superintendent?</t>
+  </si>
+  <si>
+    <t>Notice: 7 working days before commencing production</t>
+  </si>
+  <si>
+    <t>3.1 - Conditions for placing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the area essentially dry and free of surface water?</t>
+  </si>
+  <si>
+    <t>– Intermediate and base courses: 5ºC</t>
+  </si>
+  <si>
+    <t>– Wearing course: 10ºC</t>
+  </si>
+  <si>
+    <t>○ Does the surface temperature meet requirements?</t>
+  </si>
+  <si>
+    <t>3.2 - Spreading</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings Spec. 1144 Asphaltic Concrete [Cl 3.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the asphalt been spread in layers at compacted thicknesses as per the drawings:</t>
+  </si>
+  <si>
+    <t>– Wearing Course: 40mm</t>
+  </si>
+  <si>
+    <t>– 7mm Primer Seal</t>
+  </si>
+  <si>
+    <t>○ Has all asphalt been spread with a purpose designed asphalt paving machine to form a uniformly smooth asphalt mat?</t>
+  </si>
+  <si>
+    <t>○ Does the width of a single paving run not exceed 6m?</t>
+  </si>
+  <si>
+    <t>3.3 - Compaction</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1144 Asphaltic Concrete [Cl 3.4, 3.5]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Uniformly compact asphalt to below requirements as soon as the asphalt has cooled sufficiently.</t>
+  </si>
+  <si>
+    <t>Tested to the following criteria (acceptable values to be calculated bases off formula in standard):</t>
+  </si>
+  <si>
+    <t>Notice: Progressive</t>
+  </si>
+  <si>
+    <t>– Density ratio greater than 94% for thickness less than 50mm</t>
+  </si>
+  <si>
+    <t>– Density ratio greater than 96% for thickness greater than 50mm</t>
+  </si>
+  <si>
+    <t>○ Confirm Frequency of testing and target requirements</t>
+  </si>
+  <si>
+    <t>○ 6 cores per lot</t>
+  </si>
+  <si>
+    <t>○ 10 nuclear density tests per lot</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>4.1 - Surface finish</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1144 Asphaltic Concrete [Cl 3.5]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Asphalt shall be consistent and uniform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel to centreline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transverse to centreline </t>
+  </si>
+  <si>
+    <t>– 10mm below a 3m straight edge for wearing course</t>
+  </si>
+  <si>
+    <t>– 7mm below a 3m straight edge for wearing course</t>
+  </si>
+  <si>
+    <t>○ Top of asphalt shall be not more than 10mm above specified level?</t>
+  </si>
+  <si>
+    <t>○ Asphalt against the kerb and channel shall be flush or not more than 5mm above the lip of the channel?</t>
+  </si>
+  <si>
+    <t>○ Do no points on the finished surface lie more than below (medium to light traffic roads):</t>
+  </si>
+  <si>
+    <t>4.2 - Survey pickup (Top layer only, N/A for all intermediate layers)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the prepared layer been surveyed in accordance with and verifying specified requirements?</t>
+  </si>
+  <si>
+    <t>○ The horizontal location of any point on the pavement not to vary by more than ± 50mm from the corresponding points shown on the documents, expect where alignment with existing is required.</t>
+  </si>
+  <si>
+    <t>As built reports</t>
   </si>
 </sst>
 </file>
@@ -291,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,6 +914,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1027,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1087,21 +1339,21 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -1112,7 +1364,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1120,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1155,15 +1407,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,7 +1431,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,42 +1466,39 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,23 +1514,26 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,18 +1549,15 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,15 +1581,15 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>36</v>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,26 +1597,26 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
+      <c r="A34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,42 +1640,39 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
+      <c r="A40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
+      <c r="A41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,15 +1696,18 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>38</v>
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,18 +1723,15 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>12</v>
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,39 +1739,39 @@
         <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>34</v>
+      <c r="A52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>39</v>
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>26</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,18 +1787,15 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,15 +1803,18 @@
         <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>20</v>
+      <c r="A59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,15 +1822,15 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>27</v>
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,7 +1838,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,26 +1846,23 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>19</v>
+      <c r="A65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1627,23 +1870,26 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>34</v>
+      <c r="A67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>28</v>
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,34 +1905,31 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>20</v>
+      <c r="A73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,15 +1937,18 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>40</v>
+      <c r="A75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,26 +1964,23 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>19</v>
+      <c r="A79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1745,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,23 +1996,23 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>41</v>
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>29</v>
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,7 +2020,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,18 +2028,15 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,23 +2052,26 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>34</v>
+      <c r="A89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>31</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,26 +2087,23 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
+      <c r="A93" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
+      <c r="A94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1871,7 +2111,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,15 +2119,15 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>30</v>
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,7 +2143,7 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,23 +2178,23 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>42</v>
+      <c r="B104" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>32</v>
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1970,26 +2210,26 @@
         <v>13</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,42 +2245,39 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>33</v>
+      <c r="A112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="A113" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>16</v>
+      <c r="B114" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>12</v>
+      <c r="A115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2285,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,7 +2301,502 @@
         <v>13</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
